--- a/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
+++ b/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\cdsTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D616AAE8-F7F2-4EDE-AFA8-B80328D2402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C78AC8-AF36-4B99-AED2-65C3339CACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enrollment_general" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="344">
   <si>
     <t>Value</t>
   </si>
@@ -164,15 +164,9 @@
     <t>hispanic</t>
   </si>
   <si>
-    <t>african americans</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
-    <t>american indians</t>
-  </si>
-  <si>
     <t>asian</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
   </si>
   <si>
     <t>How many degree-seeking first-time first-year students are enrolled?</t>
-  </si>
-  <si>
-    <t>first-year american indians</t>
   </si>
   <si>
     <t>36</t>
@@ -1072,6 +1063,12 @@
   </si>
   <si>
     <t>The type of college-owned, -operated, or -affiliated housing available include the following: coed dorms, men's dorms, apartment for single students, fraternity/sorority housing, and theme housing</t>
+  </si>
+  <si>
+    <t>american indian</t>
+  </si>
+  <si>
+    <t>african american</t>
   </si>
 </sst>
 </file>
@@ -3927,46 +3924,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4054,7 +4051,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4119,7 +4116,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4184,7 +4181,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4249,7 +4246,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4314,7 +4311,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4785,49 +4782,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -4850,7 +4847,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4918,7 +4915,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4986,7 +4983,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5054,7 +5051,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5122,7 +5119,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5190,7 +5187,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5258,7 +5255,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5326,7 +5323,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5462,7 +5459,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5530,7 +5527,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5598,7 +5595,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6090,61 +6087,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6247,7 +6244,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6327,7 +6324,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6407,7 +6404,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6567,7 +6564,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6647,7 +6644,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6727,7 +6724,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6807,7 +6804,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6887,7 +6884,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7543,28 +7540,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
@@ -7587,7 +7584,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7634,7 +7631,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7681,7 +7678,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7728,7 +7725,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7775,7 +7772,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7822,7 +7819,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8177,67 +8174,67 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>26</v>
@@ -8246,28 +8243,28 @@
         <v>1</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>17</v>
@@ -8287,7 +8284,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8403,7 +8400,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8519,7 +8516,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8635,7 +8632,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8751,7 +8748,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8867,7 +8864,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8983,7 +8980,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9099,7 +9096,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9215,7 +9212,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9331,7 +9328,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9447,7 +9444,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9563,7 +9560,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9679,7 +9676,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9795,7 +9792,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9911,7 +9908,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10027,7 +10024,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10143,7 +10140,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10259,7 +10256,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10375,7 +10372,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10491,7 +10488,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10607,7 +10604,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11322,10 +11319,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -11354,7 +11351,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11392,7 +11389,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11468,7 +11465,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11506,7 +11503,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11828,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -11849,61 +11846,61 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>17</v>
@@ -11923,7 +11920,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12021,7 +12018,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -12119,7 +12116,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12217,7 +12214,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -12315,7 +12312,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -12413,7 +12410,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -12511,7 +12508,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12609,7 +12606,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12707,7 +12704,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12805,7 +12802,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -12903,7 +12900,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -13001,7 +12998,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -13099,7 +13096,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -13197,7 +13194,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13295,7 +13292,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13393,7 +13390,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13999,40 +13996,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -14052,7 +14049,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14108,7 +14105,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -14164,7 +14161,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -14220,7 +14217,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -14276,7 +14273,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -14619,9 +14616,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -14646,31 +14653,31 @@
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -14691,12 +14698,12 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14767,7 +14774,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14838,7 +14845,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14909,7 +14916,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15051,7 +15058,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15193,7 +15200,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -15264,7 +15271,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -15761,7 +15768,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -15840,12 +15847,15 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -15877,31 +15887,31 @@
         <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -15922,12 +15932,12 @@
         <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16004,7 +16014,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16081,7 +16091,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -16158,7 +16168,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -16312,7 +16322,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -16466,7 +16476,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -17082,7 +17092,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -17181,79 +17191,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>17</v>
@@ -17276,7 +17286,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -17374,7 +17384,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -17472,7 +17482,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -17864,7 +17874,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -17962,7 +17972,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -18060,7 +18070,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -18158,7 +18168,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -18256,7 +18266,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -18354,7 +18364,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -18452,7 +18462,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -18648,7 +18658,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -19040,7 +19050,7 @@
     </row>
     <row r="20" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -19138,7 +19148,7 @@
     </row>
     <row r="21" spans="1:32" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -19645,61 +19655,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -19707,7 +19717,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -19772,7 +19782,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -19837,7 +19847,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -19902,7 +19912,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -19967,7 +19977,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -20032,7 +20042,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -20097,7 +20107,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -20162,7 +20172,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -20227,7 +20237,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -20292,7 +20302,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -20357,7 +20367,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -20422,7 +20432,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -20487,7 +20497,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -20552,7 +20562,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -20617,7 +20627,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -20682,7 +20692,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -20747,7 +20757,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -20812,7 +20822,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -20877,7 +20887,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -20942,7 +20952,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -21023,69 +21033,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21150,7 +21160,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -21215,7 +21225,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -21280,7 +21290,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -21345,7 +21355,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -21410,7 +21420,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -21475,7 +21485,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -21540,7 +21550,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -21605,7 +21615,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -21670,7 +21680,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -21735,7 +21745,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -21807,7 +21817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -21823,46 +21833,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -21885,7 +21895,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21950,7 +21960,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -22015,7 +22025,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -22080,7 +22090,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -22145,7 +22155,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -22210,7 +22220,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -22275,7 +22285,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22340,7 +22350,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22405,7 +22415,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22470,7 +22480,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -22535,7 +22545,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -22600,7 +22610,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -22665,7 +22675,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -22730,7 +22740,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -22795,7 +22805,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -22860,7 +22870,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -22925,7 +22935,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -22990,7 +23000,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -23055,7 +23065,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -23120,7 +23130,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -23185,7 +23195,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -23250,7 +23260,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -23315,7 +23325,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -23380,7 +23390,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -23445,7 +23455,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -23510,7 +23520,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -23575,7 +23585,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -23640,7 +23650,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -23705,7 +23715,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -23770,7 +23780,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -23835,7 +23845,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -23900,7 +23910,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -23965,7 +23975,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -24030,7 +24040,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -24095,7 +24105,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -24160,7 +24170,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -24631,52 +24641,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -24699,7 +24709,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -24770,7 +24780,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -24841,7 +24851,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -24912,7 +24922,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -24983,7 +24993,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -25054,7 +25064,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -25569,58 +25579,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -25643,7 +25653,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -25720,7 +25730,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -25797,7 +25807,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -25874,7 +25884,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -25951,7 +25961,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -26028,7 +26038,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -26105,7 +26115,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -26182,7 +26192,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -26259,7 +26269,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26336,7 +26346,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -26413,7 +26423,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26490,7 +26500,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
+++ b/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\cdsTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C78AC8-AF36-4B99-AED2-65C3339CACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A0383-D881-45BE-830D-77048DAF30F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enrollment_general" sheetId="2" r:id="rId1"/>
@@ -14616,7 +14616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -24632,7 +24632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -25348,7 +25350,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>0</v>

--- a/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
+++ b/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\cdsTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\tests\testMaterials\cdsTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A0383-D881-45BE-830D-77048DAF30F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F0253-62FE-4DFF-B617-FD2FD7512028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enrollment_general" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="348">
   <si>
     <t>Value</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>nan</t>
-  </si>
-  <si>
-    <t>The [aggregation] of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [degree-goal] [student_level] enrolled is &lt;value&gt;</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1069,13 +1066,28 @@
   </si>
   <si>
     <t>african american</t>
+  </si>
+  <si>
+    <t>Number of students enrolled. This can vary from male or female students, undergraduate or graduate, degree-seeking or non-degree-seeking, full-time and part-time, first-year or non-first-year, and first-time and non-first-time, and freshman and non-freshman and combinations of these variations.</t>
+  </si>
+  <si>
+    <t>The number of [gender] [is_first_time] [is_first_year] [undergraduate_grade_level] [enrollment_status] [degree-goal] [student_level] students enrolled is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Metadata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,6 +1099,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1124,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1135,6 +1159,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,17 +1443,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1473,30 +1507,12 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2">
@@ -1544,30 +1560,12 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1615,30 +1613,12 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4">
@@ -1686,30 +1666,12 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5">
@@ -1757,30 +1719,12 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6">
@@ -1828,30 +1772,12 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7">
@@ -1899,30 +1825,12 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8">
@@ -1970,30 +1878,12 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9">
@@ -2041,30 +1931,12 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10">
@@ -2112,30 +1984,12 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11">
@@ -2183,30 +2037,12 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12">
@@ -2254,30 +2090,12 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13">
@@ -2325,30 +2143,12 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14">
@@ -2396,30 +2196,12 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15">
@@ -2467,30 +2249,12 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16">
@@ -2538,30 +2302,12 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17">
@@ -2609,30 +2355,12 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18">
@@ -2680,30 +2408,12 @@
       <c r="Q18">
         <v>1</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19">
@@ -2751,30 +2461,12 @@
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20">
@@ -2822,30 +2514,12 @@
       <c r="Q20">
         <v>1</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21">
@@ -2893,30 +2567,12 @@
       <c r="Q21">
         <v>1</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22">
@@ -2964,30 +2620,12 @@
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23">
@@ -3035,30 +2673,12 @@
       <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24">
@@ -3106,30 +2726,12 @@
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25">
@@ -3177,30 +2779,12 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26">
@@ -3248,30 +2832,12 @@
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27">
@@ -3319,30 +2885,12 @@
       <c r="Q27">
         <v>1</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28">
@@ -3390,30 +2938,12 @@
       <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>1</v>
       </c>
       <c r="C29">
@@ -3461,30 +2991,12 @@
       <c r="Q29">
         <v>1</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0</v>
       </c>
       <c r="C30">
@@ -3532,382 +3044,66 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3924,46 +3120,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -3986,7 +3182,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4051,7 +3247,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4116,7 +3312,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4181,7 +3377,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4246,7 +3442,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4311,7 +3507,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4506,7 +3702,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4571,7 +3767,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4636,7 +3832,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4701,7 +3897,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4782,49 +3978,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -4847,7 +4043,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4915,7 +4111,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4983,7 +4179,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5051,7 +4247,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5119,7 +4315,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5187,7 +4383,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5255,7 +4451,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5323,7 +4519,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5391,7 +4587,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5459,7 +4655,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5527,7 +4723,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5595,7 +4791,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5799,7 +4995,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5867,7 +5063,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5935,7 +5131,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6003,7 +5199,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6087,61 +5283,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -6164,7 +5360,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6244,7 +5440,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6324,7 +5520,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6404,7 +5600,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6484,7 +5680,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6564,7 +5760,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6644,7 +5840,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6724,7 +5920,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6804,7 +6000,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6884,7 +6080,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6964,7 +6160,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7204,7 +6400,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7284,7 +6480,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7364,7 +6560,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7444,7 +6640,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7540,28 +6736,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
@@ -7584,7 +6780,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7631,7 +6827,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7678,7 +6874,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7725,7 +6921,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7772,7 +6968,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7819,7 +7015,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7960,7 +7156,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8007,7 +7203,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8054,7 +7250,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8101,7 +7297,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8174,67 +7370,67 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>26</v>
@@ -8243,28 +7439,28 @@
         <v>1</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>17</v>
@@ -8284,7 +7480,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8400,7 +7596,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8516,7 +7712,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8632,7 +7828,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8748,7 +7944,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8864,7 +8060,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8980,7 +8176,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9096,7 +8292,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9212,7 +8408,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9328,7 +8524,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9444,7 +8640,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9560,7 +8756,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9676,7 +8872,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9792,7 +8988,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9908,7 +9104,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10024,7 +9220,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10140,7 +9336,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10256,7 +9452,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10372,7 +9568,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10488,7 +9684,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10604,7 +9800,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10836,7 +10032,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10952,7 +10148,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11068,7 +10264,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11184,7 +10380,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11319,10 +10515,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -11351,7 +10547,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11389,7 +10585,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11465,7 +10661,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11503,7 +10699,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11655,7 +10851,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11693,7 +10889,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11731,7 +10927,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11769,7 +10965,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11825,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -11846,61 +11042,61 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>17</v>
@@ -11920,7 +11116,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12018,7 +11214,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -12116,7 +11312,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12214,7 +11410,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -12312,7 +11508,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -12410,7 +11606,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -12508,7 +11704,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12606,7 +11802,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12704,7 +11900,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12802,7 +11998,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -12900,7 +12096,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12998,7 +12194,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -13096,7 +12292,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -13194,7 +12390,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13292,7 +12488,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13390,7 +12586,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13586,7 +12782,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -13684,7 +12880,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -13782,7 +12978,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -13880,7 +13076,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -13996,40 +13192,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -14049,7 +13245,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14105,7 +13301,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -14161,7 +13357,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -14217,7 +13413,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -14273,7 +13469,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -14385,7 +13581,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -14441,7 +13637,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -14497,7 +13693,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -14553,7 +13749,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -14644,40 +13840,40 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -14698,12 +13894,12 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14774,7 +13970,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14845,7 +14041,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14916,7 +14112,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15058,7 +14254,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15200,7 +14396,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -15271,7 +14467,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -15484,7 +14680,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -15555,7 +14751,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -15626,7 +14822,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -15697,7 +14893,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -15768,7 +14964,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -15878,40 +15074,40 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -15932,12 +15128,12 @@
         <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16014,7 +15210,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16091,7 +15287,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -16168,7 +15364,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -16322,7 +15518,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -16476,7 +15672,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -16784,7 +15980,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -16861,7 +16057,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -16938,7 +16134,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -17015,7 +16211,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -17092,7 +16288,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -17191,79 +16387,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>17</v>
@@ -17286,7 +16482,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -17384,7 +16580,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -17482,7 +16678,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -17874,7 +17070,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -17972,7 +17168,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -18070,7 +17266,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -18168,7 +17364,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -18266,7 +17462,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -18364,7 +17560,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -18462,7 +17658,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -18658,7 +17854,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -19050,7 +18246,7 @@
     </row>
     <row r="20" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -19148,7 +18344,7 @@
     </row>
     <row r="21" spans="1:32" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -19246,7 +18442,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -19344,7 +18540,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -19442,7 +18638,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -19540,7 +18736,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -19655,61 +18851,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -19717,7 +18913,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -19782,7 +18978,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -19847,7 +19043,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -19912,7 +19108,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -19977,7 +19173,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -20042,7 +19238,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -20107,7 +19303,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -20172,7 +19368,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -20237,7 +19433,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -20302,7 +19498,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -20367,7 +19563,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -20432,7 +19628,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -20497,7 +19693,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -20562,7 +19758,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -20627,7 +19823,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -20692,7 +19888,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -20757,7 +19953,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -20822,7 +20018,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -20887,7 +20083,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -20952,7 +20148,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -21033,69 +20229,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21160,7 +20356,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -21225,7 +20421,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -21290,7 +20486,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -21355,7 +20551,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -21420,7 +20616,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -21485,7 +20681,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -21550,7 +20746,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -21615,7 +20811,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -21680,7 +20876,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -21745,7 +20941,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -21833,46 +21029,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -21895,7 +21091,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21960,7 +21156,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -22025,7 +21221,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -22090,7 +21286,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -22155,7 +21351,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -22220,7 +21416,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -22285,7 +21481,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22350,7 +21546,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22415,7 +21611,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22480,7 +21676,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -22545,7 +21741,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -22610,7 +21806,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -22675,7 +21871,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -22740,7 +21936,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -22805,7 +22001,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -22870,7 +22066,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -22935,7 +22131,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -23000,7 +22196,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -23065,7 +22261,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -23130,7 +22326,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -23195,7 +22391,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -23260,7 +22456,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -23325,7 +22521,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -23390,7 +22586,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -23455,7 +22651,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -23520,7 +22716,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -23585,7 +22781,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -23650,7 +22846,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -23715,7 +22911,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -23780,7 +22976,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -23845,7 +23041,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -23910,7 +23106,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -23975,7 +23171,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -24040,7 +23236,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -24105,7 +23301,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -24170,7 +23366,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -24365,7 +23561,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -24430,7 +23626,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -24495,7 +23691,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -24560,7 +23756,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -24630,65 +23826,69 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -24711,7 +23911,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -24782,7 +23982,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -24853,7 +24053,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -24924,7 +24124,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -24995,7 +24195,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -25066,7 +24266,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -25279,7 +24479,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -25350,7 +24550,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -25421,7 +24621,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -25492,7 +24692,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -25561,6 +24761,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="100.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:23" ht="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25581,58 +24791,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -25655,7 +24865,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -25732,7 +24942,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -25809,7 +25019,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -25886,7 +25096,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -25963,7 +25173,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -26040,7 +25250,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -26117,7 +25327,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -26194,7 +25404,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -26271,7 +25481,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -26348,7 +25558,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -26425,7 +25635,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -26502,7 +25712,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -26733,7 +25943,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -26810,7 +26020,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -26887,7 +26097,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -26964,7 +26174,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>

--- a/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
+++ b/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\tests\testMaterials\cdsTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F0253-62FE-4DFF-B617-FD2FD7512028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C2E96B-6963-4CD0-8628-FF0DDD9E0B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="350">
   <si>
     <t>Value</t>
   </si>
@@ -1081,6 +1081,12 @@
   </si>
   <si>
     <t>Metadata</t>
+  </si>
+  <si>
+    <t>Denominator-question</t>
+  </si>
+  <si>
+    <t>How many students are enrolled</t>
   </si>
 </sst>
 </file>
@@ -1443,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3098,7 +3104,15 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -13813,11 +13827,12 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" customWidth="1"/>
@@ -15043,7 +15058,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16372,8 +16387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="E20" workbookViewId="0">
+      <selection activeCell="AF25" sqref="F25:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
+++ b/tests/testMaterials/cdsTestData/CDSSparse_2020_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\RHIT_IRPA_@\rhit_IRPA_2023\tests\testMaterials\cdsTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C2E96B-6963-4CD0-8628-FF0DDD9E0B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658C0F7-5CFF-427F-826E-A2FA5B0CAB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,7 +1168,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,1608 +1453,1608 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3107,7 +3109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>348</v>
       </c>
@@ -13826,8 +13828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15057,14 +15059,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
     <col min="10" max="10" width="22.88671875" customWidth="1"/>
     <col min="12" max="12" width="40.21875" customWidth="1"/>
   </cols>
